--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_24.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_24.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_8</t>
+          <t>model_1_24_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9982759818982866</v>
+        <v>0.9455082671353409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.822790641947847</v>
+        <v>0.7142299261768181</v>
       </c>
       <c r="D2" t="n">
-        <v>0.806757694539771</v>
+        <v>0.7686498154108816</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9849842240836861</v>
+        <v>0.9555369359900528</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00717627137420471</v>
+        <v>0.1749341119480912</v>
       </c>
       <c r="G2" t="n">
-        <v>1.184999793268812</v>
+        <v>1.910945799505814</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6912165217985793</v>
+        <v>0.8275261958208278</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03504333404108052</v>
+        <v>0.3082400325656407</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2333292816292938</v>
+        <v>0.8057360048738321</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08471287608271078</v>
+        <v>0.4182512545684605</v>
       </c>
       <c r="L2" t="n">
-        <v>1.110337158509658</v>
+        <v>0.9257984914183365</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08604701919920499</v>
+        <v>0.4248382937300487</v>
       </c>
       <c r="N2" t="n">
-        <v>139.873950676045</v>
+        <v>37.48669175821499</v>
       </c>
       <c r="O2" t="n">
-        <v>281.2091232192615</v>
+        <v>74.45127534644081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_9</t>
+          <t>model_1_24_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9982551435819641</v>
+        <v>0.9454974823270758</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8227363780038973</v>
+        <v>0.7142204342439037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8066165592853102</v>
+        <v>0.7686455250955095</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9847952522751388</v>
+        <v>0.9555091276461842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007263011422214547</v>
+        <v>0.1749687342799059</v>
       </c>
       <c r="G3" t="n">
-        <v>1.185362656511866</v>
+        <v>1.911009272104919</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6917213544202931</v>
+        <v>0.8275415420301466</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03548435035939661</v>
+        <v>0.3084328138102649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2342634155712459</v>
+        <v>0.8055509801814126</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08522330328152357</v>
+        <v>0.4182926419146121</v>
       </c>
       <c r="L3" t="n">
-        <v>1.111670810754298</v>
+        <v>0.9257838057219755</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08656548511615909</v>
+        <v>0.42488033288553</v>
       </c>
       <c r="N3" t="n">
-        <v>139.8499214794028</v>
+        <v>37.48629596455626</v>
       </c>
       <c r="O3" t="n">
-        <v>281.1850940226192</v>
+        <v>74.45087955278207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_7</t>
+          <t>model_1_24_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9983246306200507</v>
+        <v>0.9454868521633089</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8227246656153965</v>
+        <v>0.7142110484090525</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8070848778880297</v>
+        <v>0.7686412149444972</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9854332976144684</v>
+        <v>0.9554816807822477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006973769771094774</v>
+        <v>0.1750028601584686</v>
       </c>
       <c r="G4" t="n">
-        <v>1.185440977307701</v>
+        <v>1.911072035225787</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6900462059330382</v>
+        <v>0.827556959190401</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03399530070361488</v>
+        <v>0.3086230890965503</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2304314178053274</v>
+        <v>0.8053677517434156</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0835090999298566</v>
+        <v>0.4183334317962988</v>
       </c>
       <c r="L4" t="n">
-        <v>1.107223640316754</v>
+        <v>0.9257693306053567</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08482428477527804</v>
+        <v>0.4249217651670784</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9311986874698</v>
+        <v>37.485905922859</v>
       </c>
       <c r="O4" t="n">
-        <v>281.2663712306862</v>
+        <v>74.45048951108483</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_6</t>
+          <t>model_1_24_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9983438780425412</v>
+        <v>0.9454762898578202</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8225984504825493</v>
+        <v>0.7142017966044628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8074398355413537</v>
+        <v>0.768636772508992</v>
       </c>
       <c r="E5" t="n">
-        <v>0.985670562441425</v>
+        <v>0.9554544875828729</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006893651861132912</v>
+        <v>0.1750367681924703</v>
       </c>
       <c r="G5" t="n">
-        <v>1.186284978482218</v>
+        <v>1.911133902085679</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6887765429887256</v>
+        <v>0.8275728495246159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03344157969488522</v>
+        <v>0.3088116058541667</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2310827349360711</v>
+        <v>0.8051876556450731</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08302801853069187</v>
+        <v>0.4183739573545064</v>
       </c>
       <c r="L5" t="n">
-        <v>1.105991805277363</v>
+        <v>0.9257549478914998</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08433562682498143</v>
+        <v>0.424962928962317</v>
       </c>
       <c r="N5" t="n">
-        <v>139.9543086219657</v>
+        <v>37.48551844634079</v>
       </c>
       <c r="O5" t="n">
-        <v>281.2894811651821</v>
+        <v>74.45010203456661</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_5</t>
+          <t>model_1_24_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9987176598242765</v>
+        <v>0.9454658496088337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8222636111792888</v>
+        <v>0.7141926293001981</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8083890383346237</v>
+        <v>0.7686322582070109</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9893425539921007</v>
+        <v>0.9554276219784129</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005337775215870004</v>
+        <v>0.1750702843900468</v>
       </c>
       <c r="G6" t="n">
-        <v>1.188524050444914</v>
+        <v>1.911195203891509</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6853812996351391</v>
+        <v>0.8275889969210481</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02487200412160101</v>
+        <v>0.3089978515612054</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2150961355906559</v>
+        <v>0.8050067243201858</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07306007949537151</v>
+        <v>0.4184140107477841</v>
       </c>
       <c r="L6" t="n">
-        <v>1.082069771246303</v>
+        <v>0.9257407313822417</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07421070271413817</v>
+        <v>0.4250036131565001</v>
       </c>
       <c r="N6" t="n">
-        <v>140.4658926781289</v>
+        <v>37.48513552120482</v>
       </c>
       <c r="O6" t="n">
-        <v>281.8010652213453</v>
+        <v>74.44971910943063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_3</t>
+          <t>model_1_24_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9987762431526737</v>
+        <v>0.9454554952722588</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8222196181567516</v>
+        <v>0.7141835731420498</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8085721003329475</v>
+        <v>0.7686277857761774</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9899115581090946</v>
+        <v>0.9554010492198047</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005093920547427526</v>
+        <v>0.1751035247841086</v>
       </c>
       <c r="G7" t="n">
-        <v>1.18881823198919</v>
+        <v>1.911255762462746</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6847264974816794</v>
+        <v>0.827604994546813</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02354408064607132</v>
+        <v>0.3091820671154222</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2112599674193063</v>
+        <v>0.8048289343572123</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0713717069112651</v>
+        <v>0.4184537307565899</v>
       </c>
       <c r="L7" t="n">
-        <v>1.078320438228886</v>
+        <v>0.9257266318600971</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07249573994958548</v>
+        <v>0.4250439587157392</v>
       </c>
       <c r="N7" t="n">
-        <v>140.5594149996641</v>
+        <v>37.48475581954477</v>
       </c>
       <c r="O7" t="n">
-        <v>281.8945875428805</v>
+        <v>74.44933940777059</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_4</t>
+          <t>model_1_24_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.998732859845446</v>
+        <v>0.9454452702061902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8221759935027222</v>
+        <v>0.7141746219047641</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8083947276654538</v>
+        <v>0.7686230620788947</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9894946130165225</v>
+        <v>0.9553747418133451</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005274504721959831</v>
+        <v>0.1751363501827203</v>
       </c>
       <c r="G8" t="n">
-        <v>1.189109950251557</v>
+        <v>1.911315619427692</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6853609492286459</v>
+        <v>0.8276218909380975</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02451713366958616</v>
+        <v>0.3093644431168153</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2141547725891721</v>
+        <v>0.8046549462707294</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07262578551698998</v>
+        <v>0.4184929511744736</v>
       </c>
       <c r="L8" t="n">
-        <v>1.081096969891455</v>
+        <v>0.925712708365876</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07376956903973184</v>
+        <v>0.4250837968159985</v>
       </c>
       <c r="N8" t="n">
-        <v>140.4897409911994</v>
+        <v>37.48438092906481</v>
       </c>
       <c r="O8" t="n">
-        <v>281.8249135344158</v>
+        <v>74.44896451729062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_2</t>
+          <t>model_1_24_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9988866087533429</v>
+        <v>0.9454351409460564</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8215831233958043</v>
+        <v>0.7141657815662148</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8073690769817299</v>
+        <v>0.7686184675173846</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9915047202352057</v>
+        <v>0.9553487328864156</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004634520788230255</v>
+        <v>0.1751688680167669</v>
       </c>
       <c r="G9" t="n">
-        <v>1.193074475386433</v>
+        <v>1.911374734812277</v>
       </c>
       <c r="H9" t="n">
-        <v>0.689029642253683</v>
+        <v>0.8276383254182109</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01982601020615102</v>
+        <v>0.3095447499099314</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2133680713901894</v>
+        <v>0.8044813884503198</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06807731478422349</v>
+        <v>0.4185318004844636</v>
       </c>
       <c r="L9" t="n">
-        <v>1.071257039786055</v>
+        <v>0.9256989153308002</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06914946443972692</v>
+        <v>0.4251232579637858</v>
       </c>
       <c r="N9" t="n">
-        <v>140.748444950239</v>
+        <v>37.48400962047503</v>
       </c>
       <c r="O9" t="n">
-        <v>282.0836174934554</v>
+        <v>74.44859320870086</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_1</t>
+          <t>model_1_24_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9988974103168263</v>
+        <v>0.9454250898810366</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8214687797921051</v>
+        <v>0.7141570037755928</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8073959916158857</v>
+        <v>0.7686138405644494</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9916426336159488</v>
+        <v>0.955322972331287</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004589558991862589</v>
+        <v>0.1752011348220404</v>
       </c>
       <c r="G10" t="n">
-        <v>1.193839091590874</v>
+        <v>1.911433431938585</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6889333701679078</v>
+        <v>0.8276548757605741</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01950415240159599</v>
+        <v>0.309723334866424</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2127692797905837</v>
+        <v>0.8043101805778077</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06774628397087613</v>
+        <v>0.4185703463242952</v>
       </c>
       <c r="L10" t="n">
-        <v>1.070565739723115</v>
+        <v>0.9256852287741775</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06881322022197875</v>
+        <v>0.4251624108620631</v>
       </c>
       <c r="N10" t="n">
-        <v>140.7679426794598</v>
+        <v>37.48364124641215</v>
       </c>
       <c r="O10" t="n">
-        <v>282.1031152226763</v>
+        <v>74.44822483463797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_24_0</t>
+          <t>model_1_24_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9990236204222493</v>
+        <v>0.945415123195214</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8214685136757659</v>
+        <v>0.7141483728549678</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8066204968094627</v>
+        <v>0.7686090604964595</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9935236888009148</v>
+        <v>0.9552974789681673</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004064206058629266</v>
+        <v>0.1752331307458582</v>
       </c>
       <c r="G11" t="n">
-        <v>1.193840871112059</v>
+        <v>1.911491146944546</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6917072701247103</v>
+        <v>0.8276719737866099</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01511420641653029</v>
+        <v>0.3099000675152687</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2006430900362456</v>
+        <v>0.8041415640255984</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0637511259400904</v>
+        <v>0.4186085650650954</v>
       </c>
       <c r="L11" t="n">
-        <v>1.062488292976042</v>
+        <v>0.9256716571168873</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06475514244590097</v>
+        <v>0.4252012315098261</v>
       </c>
       <c r="N11" t="n">
-        <v>141.0110737331769</v>
+        <v>37.48327603185352</v>
       </c>
       <c r="O11" t="n">
-        <v>282.3462462763933</v>
+        <v>74.44785962007934</v>
       </c>
     </row>
   </sheetData>
